--- a/tmp.xlsx
+++ b/tmp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" windowHeight="16720" windowWidth="28800" xWindow="0" yWindow="460"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16720" windowWidth="28800" xWindow="0" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -25,13 +25,13 @@
     <t>客户：</t>
   </si>
   <si>
-    <t>李</t>
+    <t>李甫帅</t>
   </si>
   <si>
     <t>下单日期：</t>
   </si>
   <si>
-    <t>2018-04-10</t>
+    <t>2018-04-14</t>
   </si>
   <si>
     <t>印刷版号：</t>
@@ -49,7 +49,7 @@
     <t>交货日期：</t>
   </si>
   <si>
-    <t>2018-04-12</t>
+    <t>2018-04-15</t>
   </si>
   <si>
     <t>金额：</t>
@@ -124,7 +124,7 @@
     <t>用料数量：</t>
   </si>
   <si>
-    <t>用料数量</t>
+    <t>用料刷了</t>
   </si>
   <si>
     <t>出    血：</t>
@@ -136,7 +136,7 @@
     <t>版面枚数：</t>
   </si>
   <si>
-    <t>版面枚数</t>
+    <t>版面</t>
   </si>
   <si>
     <t xml:space="preserve">后期情况： </t>
@@ -151,13 +151,13 @@
     <t>复膜/过油：</t>
   </si>
   <si>
-    <t>复膜/过油</t>
+    <t>覆膜</t>
   </si>
   <si>
     <t>丝网：</t>
   </si>
   <si>
-    <t>丝网</t>
+    <t>死亡</t>
   </si>
   <si>
     <t xml:space="preserve">烫金：   </t>
@@ -169,49 +169,49 @@
     <t>标间距：</t>
   </si>
   <si>
-    <t>标间距</t>
+    <t>标间</t>
   </si>
   <si>
     <t>扪切要求：</t>
   </si>
   <si>
-    <t>R角</t>
+    <t>r角</t>
   </si>
   <si>
     <t>成标要求：</t>
   </si>
   <si>
-    <t>成标要求</t>
+    <t>成表</t>
   </si>
   <si>
     <t>筒芯尺寸：</t>
   </si>
   <si>
-    <t>筒芯尺寸</t>
+    <t>筒</t>
   </si>
   <si>
     <t>打包要求：</t>
   </si>
   <si>
-    <t>打包要求</t>
+    <t>打包</t>
   </si>
   <si>
     <t>出库数量：</t>
   </si>
   <si>
-    <t>出库数量</t>
+    <t>出库</t>
   </si>
   <si>
     <t>菲林编号：</t>
   </si>
   <si>
-    <t>菲林编号</t>
+    <t>菲林</t>
   </si>
   <si>
     <t>刀版编号：</t>
   </si>
   <si>
-    <t>刀版编号</t>
+    <t>刀疤</t>
   </si>
   <si>
     <t>包装外贴所包装内对应标签并标注每包/每卷标签数量，不可混标；数量准确；</t>
